--- a/Config/Datas/pawnbaseprop.xlsx
+++ b/Config/Datas/pawnbaseprop.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -67,6 +67,9 @@
     <t>ImagePath</t>
   </si>
   <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>大图路径</t>
   </si>
   <si>
+    <t>父亲</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -134,6 +140,21 @@
   </si>
   <si>
     <t>RABMOU</t>
+  </si>
+  <si>
+    <t>jiqiren</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>MACHINERY</t>
+  </si>
+  <si>
+    <t>jiqiren_l</t>
+  </si>
+  <si>
+    <t>jiqiren_r</t>
   </si>
 </sst>
 </file>
@@ -1065,24 +1086,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
+    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="16.2727272727273" customWidth="1"/>
     <col min="5" max="6" width="11.8181818181818" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.9090909090909" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="84.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="7.54545454545455" customWidth="1"/>
+    <col min="14" max="14" width="84.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,126 +1145,138 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1249,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>30000</v>
@@ -1271,6 +1306,99 @@
       </c>
       <c r="J5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>150000</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>50000</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>3000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/pawnbaseprop.xlsx
+++ b/Config/Datas/pawnbaseprop.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -834,6 +834,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/Config/Datas/pawnbaseprop.xlsx
+++ b/Config/Datas/pawnbaseprop.xlsx
@@ -834,13 +834,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,8 +1088,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1300,7 +1293,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G5">
         <v>5000</v>
@@ -1329,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="F6">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="G6">
         <v>3000</v>
